--- a/3nen_GT_7/DXlib/DXlib/Assets/Data/stage2.xlsx
+++ b/3nen_GT_7/DXlib/DXlib/Assets/Data/stage2.xlsx
@@ -934,7 +934,7 @@
   <dimension ref="A1:BL18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
